--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orcworm\Documents\gestureinterpreter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Year 3\SCC300\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,9 +92,6 @@
     <t>Basic prototype in IDE</t>
   </si>
   <si>
-    <t>Advanced prototype in IDE</t>
-  </si>
-  <si>
     <t>Chapter 7 - Conclusions</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Chapter 6 - Testing &amp; Evaluation</t>
+  </si>
+  <si>
+    <t>Improved prototype in IDE</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +169,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -273,21 +279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -317,19 +308,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -382,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -392,18 +370,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,7 +664,7 @@
   <dimension ref="A2:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,12 +675,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
@@ -766,13 +743,13 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>30</v>
+      <c r="A3" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -794,13 +771,13 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -822,17 +799,17 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>29</v>
+      <c r="A5" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="4"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -850,17 +827,17 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="19"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -878,16 +855,16 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
+      <c r="A7" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -906,22 +883,22 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>27</v>
+      <c r="A8" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -934,13 +911,13 @@
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>22</v>
+      <c r="A9" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -948,8 +925,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -962,13 +939,13 @@
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>26</v>
+      <c r="A10" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -990,13 +967,13 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>31</v>
+      <c r="A11" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1014,17 +991,17 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="16"/>
+      <c r="W11" s="14"/>
       <c r="X11" s="6"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>25</v>
+      <c r="A12" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="19"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1046,13 +1023,13 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>33</v>
+      <c r="A13" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1074,13 +1051,13 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>23</v>
+      <c r="A14" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1102,13 +1079,13 @@
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>32</v>
+      <c r="A15" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1125,8 +1102,8 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="15"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
       <c r="X15" s="6"/>
     </row>
   </sheetData>

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Year 3\SCC300\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orcworm\Documents\gestureinterpreter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,16 +116,16 @@
     <t>Setup IDE</t>
   </si>
   <si>
-    <t>Finalize &amp; streamline code</t>
-  </si>
-  <si>
-    <t>Finalize report using feedback</t>
-  </si>
-  <si>
     <t>Chapter 6 - Testing &amp; Evaluation</t>
   </si>
   <si>
     <t>Improved prototype in IDE</t>
+  </si>
+  <si>
+    <t>Finalize report</t>
+  </si>
+  <si>
+    <t>Finalize code</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <dimension ref="A2:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -968,7 +968,7 @@
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -984,7 +984,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1074,13 +1074,13 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="4"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="4"/>
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
